--- a/data/trans_bre/P24_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_6_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,8</t>
+          <t>17,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,97</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>91,36%</t>
+          <t>13,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,67%</t>
+          <t>61,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>72,07%</t>
+          <t>111,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,0%</t>
+          <t>35,12%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>42,64%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>55,25%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,94; 21,76</t>
+          <t>2,53; 19,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,16; 23,39</t>
+          <t>9,66; 26,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,04; 20,25</t>
+          <t>-1,18; 17,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,75; 21,0</t>
+          <t>0,43; 19,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,37; 153,57</t>
+          <t>2,22; 23,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,24; 167,5</t>
+          <t>10,58; 148,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,68; 127,31</t>
+          <t>45,94; 213,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,9; 125,74</t>
+          <t>-4,7; 92,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 117,12</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7,39; 134,92</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,02</t>
+          <t>22,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,49</t>
+          <t>14,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,03</t>
+          <t>8,05</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,61</t>
+          <t>18,81</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>107,6%</t>
+          <t>21,47</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>101,2%</t>
+          <t>144,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>71,1%</t>
+          <t>83,88%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>106,58%</t>
+          <t>32,27%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>82,65%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>79,77%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,96; 25,61</t>
+          <t>12,21; 32,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,99; 23,49</t>
+          <t>3,99; 23,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 22,38</t>
+          <t>-2,18; 19,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,44; 29,52</t>
+          <t>9,1; 31,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,43; 210,97</t>
+          <t>10,46; 34,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,65; 204,54</t>
+          <t>57,3; 304,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,83; 147,71</t>
+          <t>16,41; 189,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>53,25; 195,59</t>
+          <t>-7,98; 100,61</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29,33; 187,23</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28,15; 166,59</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,48</t>
+          <t>14,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,26</t>
+          <t>12,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,06</t>
+          <t>27,9</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>-11,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,91%</t>
+          <t>-16,99</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>125,01%</t>
+          <t>68,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>119,54%</t>
+          <t>63,48%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,58%</t>
+          <t>300,72%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-25,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-32,31%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 27,04</t>
+          <t>-8,35; 35,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 37,55</t>
+          <t>-11,15; 36,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,49; 35,76</t>
+          <t>9,23; 46,64</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 15,17</t>
+          <t>-49,2; 15,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,44; 272,04</t>
+          <t>-51,4; 8,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 379,13</t>
+          <t>-30,82; 447,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,42; 360,43</t>
+          <t>-32,93; 582,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 72,24</t>
+          <t>19,31; 1822,97</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-72,01; 68,76</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-74,77; 29,37</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,98</t>
+          <t>15,76</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,73</t>
+          <t>15,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,74</t>
+          <t>10,16</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,6</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>12,95</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>101,34%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>76,32%</t>
+          <t>94,08%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>68,01%</t>
+          <t>44,9%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>43,74%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>45,82%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,12; 20,75</t>
+          <t>9,21; 22,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,25; 21,5</t>
+          <t>9,28; 22,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,18; 19,7</t>
+          <t>3,75; 17,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,44; 20,49</t>
+          <t>3,16; 18,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,19; 141,95</t>
+          <t>3,36; 22,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,34; 152,83</t>
+          <t>45,74; 156,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,74; 116,59</t>
+          <t>43,69; 166,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,78; 111,87</t>
+          <t>14,34; 90,05</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9,86; 87,77</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>7,35; 92,21</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_6_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,84</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>17,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,25</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>13,11</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>61,87%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>111,6%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>35,12%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>42,64%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>55,25%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.8414170979979</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>19.83575287347737</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>8.527086129831703</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>9.140605673857891</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>12.83187626757343</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.6187250000133965</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.299464208643823</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3565306763399572</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3931486827903815</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.5315910596111445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,53; 19,55</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 26,47</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,18; 17,77</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,43; 19,34</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 23,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>10,58; 148,48</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>45,94; 213,99</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-4,7; 92,55</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 117,12</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 134,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.530614734398929</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>11.37959336949883</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8683378299699751</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-1.185233967857722</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1.365406866268736</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.105780140723215</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.572088844270863</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.03240409658823489</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.0381487897933539</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.05840875448332111</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.54533392013466</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>28.07625041187649</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>17.87185023772905</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>18.56767717282568</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>23.76002268812623</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.484793244238556</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.39198291370629</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9467944278095034</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.08450617564707</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.365562211031845</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>22,4</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>14,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>8,05</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>18,81</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>21,47</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>144,47%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>83,88%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>32,27%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>82,65%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>79,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>12,21; 32,55</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 23,79</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 19,45</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>9,1; 31,45</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>10,46; 34,82</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>57,3; 304,06</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>16,41; 189,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 100,61</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>29,33; 187,23</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>28,15; 166,59</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>22.40113484770908</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>13.38785330287297</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>8.931416624321606</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>19.49598009822544</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>20.44625954575502</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.444673332882269</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.7754975434687938</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.3679650112757588</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.8923716891008783</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.7714580896173414</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>14,11</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>12,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>27,9</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-11,77</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-16,99</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>68,31%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>63,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>300,72%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-25,73%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-32,31%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>12.21064854527272</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.248949956844506</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.438689634692403</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>9.806693659669625</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>8.95666023091972</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.5730097149700416</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.07846928076551474</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.05257792052715751</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3530686420998426</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.2705157174401406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,35; 35,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,15; 36,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>9,23; 46,64</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-49,2; 15,18</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-51,4; 8,57</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-30,82; 447,87</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-32,93; 582,87</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>19,31; 1822,97</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-72,01; 68,76</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-74,77; 29,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>32.55329163544891</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>23.00188422809172</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>20.67959196537003</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>31.78323825855087</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>33.19212272783498</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.040642359997573</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.967554935867437</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.131502245429202</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.130970684681605</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.627678728916697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>15,76</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>15,78</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>10,16</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>11,04</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>12,95</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>92,38%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>94,08%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>44,9%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>43,74%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>45,82%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>14.10712028034853</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.75149147692748</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>26.83654421626239</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-8.043216352336573</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-16.23077818609467</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.6830586945807516</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.6591933833624554</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.875191727664179</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.185391797496247</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.312460890091326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>9,21; 22,08</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>9,28; 22,44</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,75; 17,05</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,16; 18,71</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,36; 22,29</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>45,74; 156,89</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>43,69; 166,02</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>14,34; 90,05</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>9,86; 87,77</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 92,21</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.350237958677628</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-11.08824412622069</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>9.011142054365072</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-46.38091615429343</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-51.37877724932778</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3082323610279301</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.3380477334061806</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-2.278428482205665e-05</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.7157785134147431</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.7508478781825775</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>34.99594127553982</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>35.94969085201955</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>45.87881108981249</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.94198275682076</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>10.01377848786748</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>4.478708872815788</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>5.160508283396386</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>16.63754093302495</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.8061170396006245</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.3190219462725834</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>15.76093530718926</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>16.5010656829888</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>10.56447084108416</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>11.51699686849963</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>12.43144925637726</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.9238322330939747</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.9989127594593853</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4682809627296719</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.4637036369026088</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.4390779023358936</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>9.206715462398009</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>9.476614189271464</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.060082068242505</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.801680583379161</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>2.879018708650082</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.4574381894963325</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.4353056479505747</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.1593107814939704</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1142207647795224</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.07696226745675286</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>22.08281156058327</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>23.04755880864584</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>17.44583927278033</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>19.08901121122497</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>20.8698086181824</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.568946078459175</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.779611680545623</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.9197808317087438</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.9094316252501533</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9118452722147897</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
